--- a/hộp đen/testing.xlsx
+++ b/hộp đen/testing.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="G:\kiểm thử\hộp đen\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{FE78B27D-DAE1-4756-91BD-BBFC37D66AA4}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{104F59B5-4568-42F3-AFDA-DECE8D3B5B1D}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-98" yWindow="-98" windowWidth="21795" windowHeight="12975" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-98" yWindow="-98" windowWidth="21795" windowHeight="12975" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Boundary Value Analysis" sheetId="1" r:id="rId1"/>
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="178" uniqueCount="64">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="214" uniqueCount="62">
   <si>
     <t>Test ID</t>
   </si>
@@ -48,9 +48,6 @@
     <t>Sinh hoạt</t>
   </si>
   <si>
-    <t>Lỗi (không hợp lệ)</t>
-  </si>
-  <si>
     <t>X &lt; 0</t>
   </si>
   <si>
@@ -78,9 +75,6 @@
     <t>TC9</t>
   </si>
   <si>
-    <t>50*1500 + 50*2000 + 1*3000 = 153000</t>
-  </si>
-  <si>
     <t>TC10</t>
   </si>
   <si>
@@ -93,9 +87,6 @@
     <t>TC12</t>
   </si>
   <si>
-    <t>1*2000=2000</t>
-  </si>
-  <si>
     <t>TC13</t>
   </si>
   <si>
@@ -223,6 +214,9 @@
   </si>
   <si>
     <t>invalid</t>
+  </si>
+  <si>
+    <t>passed</t>
   </si>
 </sst>
 </file>
@@ -385,7 +379,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="29">
+  <cellXfs count="30">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -404,7 +398,6 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
@@ -421,9 +414,6 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -437,6 +427,15 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -743,15 +742,15 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:J19"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="H2" sqref="H2:J9"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="E24" sqref="E24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
   <cols>
-    <col min="4" max="4" width="32.53125" style="17" customWidth="1"/>
-    <col min="5" max="5" width="14.06640625" style="17" customWidth="1"/>
-    <col min="6" max="6" width="13.796875" style="14" customWidth="1"/>
+    <col min="4" max="4" width="32.53125" style="16" customWidth="1"/>
+    <col min="5" max="5" width="14.06640625" style="16" customWidth="1"/>
+    <col min="6" max="6" width="13.796875" style="13" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:10" x14ac:dyDescent="0.45">
@@ -765,13 +764,13 @@
         <v>2</v>
       </c>
       <c r="D1" s="2" t="s">
-        <v>37</v>
+        <v>34</v>
       </c>
       <c r="E1" s="2" t="s">
-        <v>38</v>
-      </c>
-      <c r="F1" s="18" t="s">
-        <v>39</v>
+        <v>35</v>
+      </c>
+      <c r="F1" s="17" t="s">
+        <v>36</v>
       </c>
     </row>
     <row r="2" spans="1:10" x14ac:dyDescent="0.45">
@@ -784,21 +783,25 @@
       <c r="C2" s="5">
         <v>1</v>
       </c>
-      <c r="D2" s="15" t="s">
-        <v>5</v>
-      </c>
-      <c r="E2" s="15"/>
-      <c r="F2" s="13"/>
-      <c r="H2" s="19" t="s">
-        <v>35</v>
-      </c>
-      <c r="I2" s="19" t="s">
-        <v>36</v>
+      <c r="D2" s="14" t="s">
+        <v>60</v>
+      </c>
+      <c r="E2" s="14" t="s">
+        <v>60</v>
+      </c>
+      <c r="F2" s="12" t="s">
+        <v>61</v>
+      </c>
+      <c r="H2" s="18" t="s">
+        <v>32</v>
+      </c>
+      <c r="I2" s="18" t="s">
+        <v>33</v>
       </c>
     </row>
     <row r="3" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A3" s="3" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="B3" s="4">
         <v>0</v>
@@ -806,11 +809,15 @@
       <c r="C3" s="5">
         <v>1</v>
       </c>
-      <c r="D3" s="16">
+      <c r="D3" s="15">
         <v>0</v>
       </c>
-      <c r="E3" s="15"/>
-      <c r="F3" s="13"/>
+      <c r="E3" s="15">
+        <v>0</v>
+      </c>
+      <c r="F3" s="12" t="s">
+        <v>61</v>
+      </c>
       <c r="H3" s="3" t="s">
         <v>4</v>
       </c>
@@ -820,7 +827,7 @@
     </row>
     <row r="4" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A4" s="3" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="B4" s="4">
         <v>1</v>
@@ -828,14 +835,19 @@
       <c r="C4" s="5">
         <v>1</v>
       </c>
-      <c r="D4" s="15">
+      <c r="D4" s="14">
         <f>1*1500</f>
         <v>1500</v>
       </c>
-      <c r="E4" s="15"/>
-      <c r="F4" s="13"/>
+      <c r="E4" s="14">
+        <f>1*1500</f>
+        <v>1500</v>
+      </c>
+      <c r="F4" s="12" t="s">
+        <v>61</v>
+      </c>
       <c r="H4" s="3" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="I4" s="3">
         <v>2</v>
@@ -843,7 +855,7 @@
     </row>
     <row r="5" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A5" s="3" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="B5" s="4">
         <v>99</v>
@@ -851,16 +863,21 @@
       <c r="C5" s="5">
         <v>1</v>
       </c>
-      <c r="D5" s="15">
+      <c r="D5" s="14">
         <f>99 * 1500</f>
         <v>148500</v>
       </c>
-      <c r="E5" s="15"/>
-      <c r="F5" s="13"/>
+      <c r="E5" s="14">
+        <f>99 * 1500</f>
+        <v>148500</v>
+      </c>
+      <c r="F5" s="12" t="s">
+        <v>61</v>
+      </c>
     </row>
     <row r="6" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A6" s="3" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="B6" s="4">
         <v>100</v>
@@ -868,25 +885,30 @@
       <c r="C6" s="5">
         <v>1</v>
       </c>
-      <c r="D6" s="15">
+      <c r="D6" s="14">
         <f>100*1500</f>
         <v>150000</v>
       </c>
-      <c r="E6" s="15"/>
-      <c r="F6" s="13"/>
+      <c r="E6" s="14">
+        <f>100*1500</f>
+        <v>150000</v>
+      </c>
+      <c r="F6" s="12" t="s">
+        <v>61</v>
+      </c>
       <c r="H6" s="11" t="s">
-        <v>40</v>
+        <v>37</v>
       </c>
       <c r="I6" s="11" t="s">
-        <v>44</v>
+        <v>41</v>
       </c>
       <c r="J6" s="11" t="s">
-        <v>45</v>
+        <v>42</v>
       </c>
     </row>
     <row r="7" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A7" s="3" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="B7" s="4">
         <v>101</v>
@@ -894,14 +916,19 @@
       <c r="C7" s="5">
         <v>1</v>
       </c>
-      <c r="D7" s="15">
+      <c r="D7" s="14">
         <f>100*1500 + 1*2000</f>
         <v>152000</v>
       </c>
-      <c r="E7" s="15"/>
-      <c r="F7" s="13"/>
+      <c r="E7" s="14">
+        <f>100*1500 + 1*2000</f>
+        <v>152000</v>
+      </c>
+      <c r="F7" s="12" t="s">
+        <v>61</v>
+      </c>
       <c r="H7" t="s">
-        <v>41</v>
+        <v>38</v>
       </c>
       <c r="I7">
         <v>1500</v>
@@ -912,7 +939,7 @@
     </row>
     <row r="8" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A8" s="3" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="B8" s="4">
         <v>199</v>
@@ -920,14 +947,19 @@
       <c r="C8" s="5">
         <v>1</v>
       </c>
-      <c r="D8" s="15">
+      <c r="D8" s="14">
         <f>100*1500 + 99*2000</f>
         <v>348000</v>
       </c>
-      <c r="E8" s="15"/>
-      <c r="F8" s="13"/>
+      <c r="E8" s="14">
+        <f>100*1500 + 99*2000</f>
+        <v>348000</v>
+      </c>
+      <c r="F8" s="12" t="s">
+        <v>61</v>
+      </c>
       <c r="H8" t="s">
-        <v>42</v>
+        <v>39</v>
       </c>
       <c r="I8">
         <v>2000</v>
@@ -938,7 +970,7 @@
     </row>
     <row r="9" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A9" s="3" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="B9" s="4">
         <v>200</v>
@@ -946,14 +978,19 @@
       <c r="C9" s="5">
         <v>1</v>
       </c>
-      <c r="D9" s="15">
+      <c r="D9" s="14">
         <f>100*1500 + 100*2000</f>
         <v>350000</v>
       </c>
-      <c r="E9" s="15"/>
-      <c r="F9" s="13"/>
+      <c r="E9" s="14">
+        <f>100*1500 + 99*2000</f>
+        <v>348000</v>
+      </c>
+      <c r="F9" s="12" t="s">
+        <v>61</v>
+      </c>
       <c r="H9" t="s">
-        <v>43</v>
+        <v>40</v>
       </c>
       <c r="I9">
         <v>3000</v>
@@ -964,7 +1001,7 @@
     </row>
     <row r="10" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A10" s="3" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="B10" s="4">
         <v>201</v>
@@ -972,15 +1009,21 @@
       <c r="C10" s="5">
         <v>1</v>
       </c>
-      <c r="D10" s="15" t="s">
-        <v>15</v>
-      </c>
-      <c r="E10" s="15"/>
-      <c r="F10" s="13"/>
+      <c r="D10" s="14">
+        <f xml:space="preserve"> 100*1500 + 100*2000 + 1*3000</f>
+        <v>353000</v>
+      </c>
+      <c r="E10" s="14">
+        <f xml:space="preserve"> 100*1500 + 100*2000 + 1*3000</f>
+        <v>353000</v>
+      </c>
+      <c r="F10" s="12" t="s">
+        <v>61</v>
+      </c>
     </row>
     <row r="11" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A11" s="3" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="B11" s="4">
         <v>-1</v>
@@ -988,15 +1031,19 @@
       <c r="C11" s="5">
         <v>2</v>
       </c>
-      <c r="D11" s="15" t="s">
-        <v>5</v>
-      </c>
-      <c r="E11" s="15"/>
-      <c r="F11" s="13"/>
+      <c r="D11" s="14" t="s">
+        <v>60</v>
+      </c>
+      <c r="E11" s="14" t="s">
+        <v>60</v>
+      </c>
+      <c r="F11" s="12" t="s">
+        <v>61</v>
+      </c>
     </row>
     <row r="12" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A12" s="3" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="B12" s="4">
         <v>0</v>
@@ -1004,15 +1051,19 @@
       <c r="C12" s="5">
         <v>2</v>
       </c>
-      <c r="D12" s="16">
+      <c r="D12" s="15">
         <v>0</v>
       </c>
-      <c r="E12" s="15"/>
-      <c r="F12" s="13"/>
+      <c r="E12" s="15">
+        <v>0</v>
+      </c>
+      <c r="F12" s="12" t="s">
+        <v>61</v>
+      </c>
     </row>
     <row r="13" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A13" s="3" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="B13" s="4">
         <v>1</v>
@@ -1020,15 +1071,21 @@
       <c r="C13" s="5">
         <v>2</v>
       </c>
-      <c r="D13" s="15" t="s">
-        <v>20</v>
-      </c>
-      <c r="E13" s="15"/>
-      <c r="F13" s="13"/>
+      <c r="D13" s="14">
+        <f>1*2000</f>
+        <v>2000</v>
+      </c>
+      <c r="E13" s="14">
+        <f>1*2000</f>
+        <v>2000</v>
+      </c>
+      <c r="F13" s="12" t="s">
+        <v>61</v>
+      </c>
     </row>
     <row r="14" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A14" s="3" t="s">
-        <v>21</v>
+        <v>18</v>
       </c>
       <c r="B14" s="4">
         <v>99</v>
@@ -1036,16 +1093,21 @@
       <c r="C14" s="5">
         <v>2</v>
       </c>
-      <c r="D14" s="15">
+      <c r="D14" s="14">
         <f>99*2000</f>
         <v>198000</v>
       </c>
-      <c r="E14" s="15"/>
-      <c r="F14" s="13"/>
+      <c r="E14" s="14">
+        <f>99*2000</f>
+        <v>198000</v>
+      </c>
+      <c r="F14" s="12" t="s">
+        <v>61</v>
+      </c>
     </row>
     <row r="15" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A15" s="3" t="s">
-        <v>22</v>
+        <v>19</v>
       </c>
       <c r="B15" s="4">
         <v>100</v>
@@ -1053,16 +1115,21 @@
       <c r="C15" s="5">
         <v>2</v>
       </c>
-      <c r="D15" s="15">
+      <c r="D15" s="14">
         <f>100*2000</f>
         <v>200000</v>
       </c>
-      <c r="E15" s="15"/>
-      <c r="F15" s="13"/>
+      <c r="E15" s="14">
+        <f>100*2000</f>
+        <v>200000</v>
+      </c>
+      <c r="F15" s="12" t="s">
+        <v>61</v>
+      </c>
     </row>
     <row r="16" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A16" s="3" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
       <c r="B16" s="4">
         <v>101</v>
@@ -1070,16 +1137,21 @@
       <c r="C16" s="5">
         <v>2</v>
       </c>
-      <c r="D16" s="15">
+      <c r="D16" s="14">
         <f>100*2000 + 1*2500</f>
         <v>202500</v>
       </c>
-      <c r="E16" s="15"/>
-      <c r="F16" s="13"/>
+      <c r="E16" s="14">
+        <f>100*2000 + 1*2500</f>
+        <v>202500</v>
+      </c>
+      <c r="F16" s="12" t="s">
+        <v>61</v>
+      </c>
     </row>
     <row r="17" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A17" s="3" t="s">
-        <v>24</v>
+        <v>21</v>
       </c>
       <c r="B17" s="4">
         <v>199</v>
@@ -1087,16 +1159,21 @@
       <c r="C17" s="5">
         <v>2</v>
       </c>
-      <c r="D17" s="15">
-        <f>1000*2000 + 100*2500</f>
-        <v>2250000</v>
-      </c>
-      <c r="E17" s="15"/>
-      <c r="F17" s="13"/>
+      <c r="D17" s="14">
+        <f>100*2000 + 99*2500</f>
+        <v>447500</v>
+      </c>
+      <c r="E17" s="14">
+        <f>100*2000 + 99*2500</f>
+        <v>447500</v>
+      </c>
+      <c r="F17" s="12" t="s">
+        <v>61</v>
+      </c>
     </row>
     <row r="18" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A18" s="3" t="s">
-        <v>25</v>
+        <v>22</v>
       </c>
       <c r="B18" s="4">
         <v>200</v>
@@ -1104,16 +1181,21 @@
       <c r="C18" s="5">
         <v>2</v>
       </c>
-      <c r="D18" s="15">
+      <c r="D18" s="14">
         <f>100*2000 + 100*2500</f>
         <v>450000</v>
       </c>
-      <c r="E18" s="15"/>
-      <c r="F18" s="13"/>
+      <c r="E18" s="14">
+        <f>100*2000 + 100*2500</f>
+        <v>450000</v>
+      </c>
+      <c r="F18" s="12" t="s">
+        <v>61</v>
+      </c>
     </row>
     <row r="19" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A19" s="3" t="s">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="B19" s="6">
         <v>201</v>
@@ -1121,12 +1203,17 @@
       <c r="C19" s="7">
         <v>2</v>
       </c>
-      <c r="D19" s="15">
+      <c r="D19" s="14">
         <f>100*2000 + 100*2500 + 1*3500</f>
         <v>453500</v>
       </c>
-      <c r="E19" s="15"/>
-      <c r="F19" s="13"/>
+      <c r="E19" s="14">
+        <f>100*2000 + 100*2500 + 1*3500</f>
+        <v>453500</v>
+      </c>
+      <c r="F19" s="12" t="s">
+        <v>61</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
@@ -1137,8 +1224,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:N25"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G17" sqref="G17"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="E31" sqref="E31"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
@@ -1152,351 +1239,351 @@
       <c r="A1" s="2"/>
       <c r="B1" s="2"/>
       <c r="C1" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="D1" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="E1" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="F1" s="3" t="s">
         <v>29</v>
       </c>
-      <c r="D1" s="3" t="s">
+      <c r="G1" s="3" t="s">
         <v>30</v>
       </c>
-      <c r="E1" s="3" t="s">
+      <c r="H1" s="3" t="s">
         <v>31</v>
       </c>
-      <c r="F1" s="3" t="s">
-        <v>32</v>
-      </c>
-      <c r="G1" s="3" t="s">
-        <v>33</v>
-      </c>
-      <c r="H1" s="3" t="s">
-        <v>34</v>
-      </c>
       <c r="I1" s="3" t="s">
+        <v>48</v>
+      </c>
+      <c r="J1" s="3" t="s">
+        <v>49</v>
+      </c>
+      <c r="K1" s="3" t="s">
+        <v>50</v>
+      </c>
+      <c r="L1" s="3" t="s">
+        <v>54</v>
+      </c>
+      <c r="M1" s="3" t="s">
+        <v>55</v>
+      </c>
+      <c r="N1" s="3" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="2" spans="1:14" x14ac:dyDescent="0.45">
+      <c r="A2" s="27" t="s">
+        <v>24</v>
+      </c>
+      <c r="B2" s="3" t="s">
         <v>51</v>
       </c>
-      <c r="J1" s="3" t="s">
+      <c r="C2" s="3" t="s">
+        <v>46</v>
+      </c>
+      <c r="D2" s="3" t="s">
+        <v>47</v>
+      </c>
+      <c r="E2" s="3" t="s">
+        <v>47</v>
+      </c>
+      <c r="F2" s="3" t="s">
+        <v>47</v>
+      </c>
+      <c r="G2" s="3" t="s">
+        <v>46</v>
+      </c>
+      <c r="H2" s="3" t="s">
+        <v>47</v>
+      </c>
+      <c r="I2" s="3" t="s">
+        <v>47</v>
+      </c>
+      <c r="J2" s="3" t="s">
+        <v>47</v>
+      </c>
+      <c r="K2" s="3" t="s">
+        <v>46</v>
+      </c>
+      <c r="L2" s="3" t="s">
+        <v>47</v>
+      </c>
+      <c r="M2" s="3" t="s">
+        <v>47</v>
+      </c>
+      <c r="N2" s="3" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="3" spans="1:14" x14ac:dyDescent="0.45">
+      <c r="A3" s="27"/>
+      <c r="B3" s="3" t="s">
         <v>52</v>
       </c>
-      <c r="K1" s="3" t="s">
+      <c r="C3" s="3" t="s">
+        <v>47</v>
+      </c>
+      <c r="D3" s="3" t="s">
+        <v>46</v>
+      </c>
+      <c r="E3" s="3" t="s">
+        <v>47</v>
+      </c>
+      <c r="F3" s="3" t="s">
+        <v>47</v>
+      </c>
+      <c r="G3" s="3" t="s">
+        <v>47</v>
+      </c>
+      <c r="H3" s="3" t="s">
+        <v>46</v>
+      </c>
+      <c r="I3" s="3" t="s">
+        <v>47</v>
+      </c>
+      <c r="J3" s="3" t="s">
+        <v>47</v>
+      </c>
+      <c r="K3" s="3" t="s">
+        <v>47</v>
+      </c>
+      <c r="L3" s="3" t="s">
+        <v>46</v>
+      </c>
+      <c r="M3" s="3" t="s">
+        <v>47</v>
+      </c>
+      <c r="N3" s="3" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="4" spans="1:14" x14ac:dyDescent="0.45">
+      <c r="A4" s="27"/>
+      <c r="B4" s="3" t="s">
         <v>53</v>
       </c>
-      <c r="L1" s="3" t="s">
-        <v>57</v>
-      </c>
-      <c r="M1" s="3" t="s">
-        <v>58</v>
-      </c>
-      <c r="N1" s="3" t="s">
-        <v>59</v>
-      </c>
-    </row>
-    <row r="2" spans="1:14" x14ac:dyDescent="0.45">
-      <c r="A2" s="20" t="s">
-        <v>27</v>
-      </c>
-      <c r="B2" s="3" t="s">
-        <v>54</v>
-      </c>
-      <c r="C2" s="3" t="s">
-        <v>49</v>
-      </c>
-      <c r="D2" s="3" t="s">
-        <v>50</v>
-      </c>
-      <c r="E2" s="3" t="s">
-        <v>50</v>
-      </c>
-      <c r="F2" s="3" t="s">
-        <v>50</v>
-      </c>
-      <c r="G2" s="3" t="s">
-        <v>49</v>
-      </c>
-      <c r="H2" s="3" t="s">
-        <v>50</v>
-      </c>
-      <c r="I2" s="3" t="s">
-        <v>50</v>
-      </c>
-      <c r="J2" s="3" t="s">
-        <v>50</v>
-      </c>
-      <c r="K2" s="3" t="s">
-        <v>49</v>
-      </c>
-      <c r="L2" s="3" t="s">
-        <v>50</v>
-      </c>
-      <c r="M2" s="3" t="s">
-        <v>50</v>
-      </c>
-      <c r="N2" s="3" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="3" spans="1:14" x14ac:dyDescent="0.45">
-      <c r="A3" s="20"/>
-      <c r="B3" s="3" t="s">
-        <v>55</v>
-      </c>
-      <c r="C3" s="3" t="s">
-        <v>50</v>
-      </c>
-      <c r="D3" s="3" t="s">
-        <v>49</v>
-      </c>
-      <c r="E3" s="3" t="s">
-        <v>50</v>
-      </c>
-      <c r="F3" s="3" t="s">
-        <v>50</v>
-      </c>
-      <c r="G3" s="3" t="s">
-        <v>50</v>
-      </c>
-      <c r="H3" s="3" t="s">
-        <v>49</v>
-      </c>
-      <c r="I3" s="3" t="s">
-        <v>50</v>
-      </c>
-      <c r="J3" s="3" t="s">
-        <v>50</v>
-      </c>
-      <c r="K3" s="3" t="s">
-        <v>50</v>
-      </c>
-      <c r="L3" s="3" t="s">
-        <v>49</v>
-      </c>
-      <c r="M3" s="3" t="s">
-        <v>50</v>
-      </c>
-      <c r="N3" s="3" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="4" spans="1:14" x14ac:dyDescent="0.45">
-      <c r="A4" s="20"/>
-      <c r="B4" s="3" t="s">
-        <v>56</v>
-      </c>
       <c r="C4" s="3" t="s">
-        <v>50</v>
+        <v>47</v>
       </c>
       <c r="D4" s="3" t="s">
-        <v>50</v>
+        <v>47</v>
       </c>
       <c r="E4" s="3" t="s">
-        <v>49</v>
+        <v>46</v>
       </c>
       <c r="F4" s="3" t="s">
-        <v>50</v>
+        <v>47</v>
       </c>
       <c r="G4" s="3" t="s">
-        <v>50</v>
+        <v>47</v>
       </c>
       <c r="H4" s="3" t="s">
-        <v>50</v>
+        <v>47</v>
       </c>
       <c r="I4" s="3" t="s">
-        <v>49</v>
+        <v>46</v>
       </c>
       <c r="J4" s="3" t="s">
-        <v>50</v>
+        <v>47</v>
       </c>
       <c r="K4" s="3" t="s">
-        <v>50</v>
+        <v>47</v>
       </c>
       <c r="L4" s="3" t="s">
-        <v>50</v>
+        <v>47</v>
       </c>
       <c r="M4" s="3" t="s">
-        <v>49</v>
+        <v>46</v>
       </c>
       <c r="N4" s="3" t="s">
-        <v>50</v>
+        <v>47</v>
       </c>
     </row>
     <row r="5" spans="1:14" x14ac:dyDescent="0.45">
-      <c r="A5" s="20"/>
+      <c r="A5" s="27"/>
       <c r="B5" s="3" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C5" s="3"/>
       <c r="D5" s="3" t="s">
-        <v>50</v>
+        <v>47</v>
       </c>
       <c r="E5" s="3" t="s">
-        <v>50</v>
+        <v>47</v>
       </c>
       <c r="F5" s="3" t="s">
-        <v>49</v>
+        <v>46</v>
       </c>
       <c r="G5" s="3"/>
       <c r="H5" s="3" t="s">
-        <v>50</v>
+        <v>47</v>
       </c>
       <c r="I5" s="3" t="s">
-        <v>50</v>
+        <v>47</v>
       </c>
       <c r="J5" s="3" t="s">
-        <v>49</v>
+        <v>46</v>
       </c>
       <c r="K5" s="3"/>
       <c r="L5" s="3" t="s">
-        <v>50</v>
+        <v>47</v>
       </c>
       <c r="M5" s="3" t="s">
-        <v>50</v>
+        <v>47</v>
       </c>
       <c r="N5" s="3" t="s">
-        <v>49</v>
+        <v>46</v>
       </c>
     </row>
     <row r="6" spans="1:14" x14ac:dyDescent="0.45">
-      <c r="A6" s="20"/>
+      <c r="A6" s="27"/>
       <c r="B6" s="3" t="s">
-        <v>46</v>
+        <v>43</v>
       </c>
       <c r="C6" s="3" t="s">
-        <v>49</v>
+        <v>46</v>
       </c>
       <c r="D6" s="3" t="s">
-        <v>49</v>
+        <v>46</v>
       </c>
       <c r="E6" s="3" t="s">
-        <v>49</v>
+        <v>46</v>
       </c>
       <c r="F6" s="3" t="s">
-        <v>49</v>
+        <v>46</v>
       </c>
       <c r="G6" s="3" t="s">
-        <v>50</v>
+        <v>47</v>
       </c>
       <c r="H6" s="3" t="s">
-        <v>50</v>
-      </c>
-      <c r="I6" s="22" t="s">
-        <v>50</v>
-      </c>
-      <c r="J6" s="22" t="s">
-        <v>50</v>
-      </c>
-      <c r="K6" s="22" t="s">
-        <v>50</v>
-      </c>
-      <c r="L6" s="22" t="s">
-        <v>50</v>
-      </c>
-      <c r="M6" s="22" t="s">
-        <v>50</v>
-      </c>
-      <c r="N6" s="22" t="s">
-        <v>50</v>
+        <v>47</v>
+      </c>
+      <c r="I6" s="20" t="s">
+        <v>47</v>
+      </c>
+      <c r="J6" s="20" t="s">
+        <v>47</v>
+      </c>
+      <c r="K6" s="20" t="s">
+        <v>47</v>
+      </c>
+      <c r="L6" s="20" t="s">
+        <v>47</v>
+      </c>
+      <c r="M6" s="20" t="s">
+        <v>47</v>
+      </c>
+      <c r="N6" s="20" t="s">
+        <v>47</v>
       </c>
     </row>
     <row r="7" spans="1:14" x14ac:dyDescent="0.45">
-      <c r="A7" s="20"/>
+      <c r="A7" s="27"/>
       <c r="B7" s="3" t="s">
-        <v>47</v>
+        <v>44</v>
       </c>
       <c r="C7" s="3" t="s">
-        <v>50</v>
+        <v>47</v>
       </c>
       <c r="D7" s="3" t="s">
-        <v>50</v>
+        <v>47</v>
       </c>
       <c r="E7" s="3" t="s">
-        <v>50</v>
+        <v>47</v>
       </c>
       <c r="F7" s="3" t="s">
-        <v>50</v>
+        <v>47</v>
       </c>
       <c r="G7" s="3" t="s">
-        <v>49</v>
+        <v>46</v>
       </c>
       <c r="H7" s="3" t="s">
-        <v>49</v>
+        <v>46</v>
       </c>
       <c r="I7" s="3" t="s">
-        <v>49</v>
+        <v>46</v>
       </c>
       <c r="J7" s="3" t="s">
-        <v>49</v>
-      </c>
-      <c r="K7" s="22" t="s">
-        <v>50</v>
-      </c>
-      <c r="L7" s="22" t="s">
-        <v>50</v>
-      </c>
-      <c r="M7" s="22" t="s">
-        <v>50</v>
-      </c>
-      <c r="N7" s="22" t="s">
-        <v>50</v>
+        <v>46</v>
+      </c>
+      <c r="K7" s="20" t="s">
+        <v>47</v>
+      </c>
+      <c r="L7" s="20" t="s">
+        <v>47</v>
+      </c>
+      <c r="M7" s="20" t="s">
+        <v>47</v>
+      </c>
+      <c r="N7" s="20" t="s">
+        <v>47</v>
       </c>
     </row>
     <row r="8" spans="1:14" x14ac:dyDescent="0.45">
-      <c r="A8" s="20"/>
+      <c r="A8" s="27"/>
       <c r="B8" s="3" t="s">
-        <v>48</v>
+        <v>45</v>
       </c>
       <c r="C8" s="3" t="s">
-        <v>50</v>
+        <v>47</v>
       </c>
       <c r="D8" s="3" t="s">
-        <v>50</v>
+        <v>47</v>
       </c>
       <c r="E8" s="3" t="s">
-        <v>50</v>
+        <v>47</v>
       </c>
       <c r="F8" s="3" t="s">
-        <v>50</v>
+        <v>47</v>
       </c>
       <c r="G8" s="3" t="s">
-        <v>50</v>
+        <v>47</v>
       </c>
       <c r="H8" s="3" t="s">
-        <v>50</v>
+        <v>47</v>
       </c>
       <c r="I8" s="3" t="s">
-        <v>50</v>
+        <v>47</v>
       </c>
       <c r="J8" s="3" t="s">
-        <v>50</v>
-      </c>
-      <c r="K8" s="22" t="s">
-        <v>49</v>
-      </c>
-      <c r="L8" s="22" t="s">
-        <v>49</v>
-      </c>
-      <c r="M8" s="22" t="s">
-        <v>49</v>
-      </c>
-      <c r="N8" s="22" t="s">
-        <v>49</v>
+        <v>47</v>
+      </c>
+      <c r="K8" s="20" t="s">
+        <v>46</v>
+      </c>
+      <c r="L8" s="20" t="s">
+        <v>46</v>
+      </c>
+      <c r="M8" s="20" t="s">
+        <v>46</v>
+      </c>
+      <c r="N8" s="20" t="s">
+        <v>46</v>
       </c>
     </row>
     <row r="9" spans="1:14" x14ac:dyDescent="0.45">
-      <c r="A9" s="20" t="s">
-        <v>28</v>
+      <c r="A9" s="27" t="s">
+        <v>25</v>
       </c>
       <c r="B9" s="3" t="s">
-        <v>60</v>
+        <v>57</v>
       </c>
       <c r="C9" s="3"/>
       <c r="D9" s="3"/>
       <c r="E9" s="3"/>
       <c r="F9" s="3"/>
       <c r="G9" s="3" t="s">
-        <v>49</v>
+        <v>46</v>
       </c>
       <c r="H9" s="3" t="s">
-        <v>49</v>
+        <v>46</v>
       </c>
       <c r="I9" s="3" t="s">
-        <v>49</v>
+        <v>46</v>
       </c>
       <c r="J9" s="3"/>
       <c r="K9" s="3"/>
@@ -1505,9 +1592,9 @@
       <c r="N9" s="3"/>
     </row>
     <row r="10" spans="1:14" x14ac:dyDescent="0.45">
-      <c r="A10" s="20"/>
+      <c r="A10" s="27"/>
       <c r="B10" s="3" t="s">
-        <v>61</v>
+        <v>58</v>
       </c>
       <c r="C10" s="3"/>
       <c r="D10" s="3"/>
@@ -1518,48 +1605,48 @@
       <c r="I10" s="3"/>
       <c r="J10" s="3"/>
       <c r="K10" s="3" t="s">
-        <v>49</v>
+        <v>46</v>
       </c>
       <c r="L10" s="3" t="s">
-        <v>49</v>
+        <v>46</v>
       </c>
       <c r="M10" s="3" t="s">
-        <v>49</v>
+        <v>46</v>
       </c>
       <c r="N10" s="3"/>
     </row>
     <row r="11" spans="1:14" x14ac:dyDescent="0.45">
-      <c r="A11" s="20"/>
+      <c r="A11" s="27"/>
       <c r="B11" s="3" t="s">
-        <v>62</v>
+        <v>59</v>
       </c>
       <c r="C11" s="3" t="s">
-        <v>49</v>
+        <v>46</v>
       </c>
       <c r="D11" s="3" t="s">
-        <v>49</v>
+        <v>46</v>
       </c>
       <c r="E11" s="3" t="s">
-        <v>49</v>
+        <v>46</v>
       </c>
       <c r="F11" s="3" t="s">
-        <v>49</v>
+        <v>46</v>
       </c>
       <c r="G11" s="3"/>
       <c r="H11" s="3"/>
       <c r="I11" s="3"/>
       <c r="J11" s="3" t="s">
-        <v>49</v>
+        <v>46</v>
       </c>
       <c r="K11" s="3"/>
       <c r="L11" s="3"/>
       <c r="M11" s="3"/>
       <c r="N11" s="3" t="s">
-        <v>49</v>
+        <v>46</v>
       </c>
     </row>
     <row r="12" spans="1:14" x14ac:dyDescent="0.45">
-      <c r="A12" s="24"/>
+      <c r="A12" s="22"/>
       <c r="B12" s="1"/>
       <c r="C12" s="1"/>
       <c r="D12" s="1"/>
@@ -1585,13 +1672,13 @@
         <v>2</v>
       </c>
       <c r="D13" s="2" t="s">
-        <v>37</v>
-      </c>
-      <c r="E13" s="12" t="s">
-        <v>38</v>
-      </c>
-      <c r="F13" s="25" t="s">
-        <v>39</v>
+        <v>34</v>
+      </c>
+      <c r="E13" s="28" t="s">
+        <v>35</v>
+      </c>
+      <c r="F13" s="23" t="s">
+        <v>36</v>
       </c>
       <c r="G13" s="1"/>
       <c r="H13" s="1"/>
@@ -1603,47 +1690,55 @@
       <c r="N13" s="1"/>
     </row>
     <row r="14" spans="1:14" x14ac:dyDescent="0.45">
-      <c r="A14" s="21">
+      <c r="A14" s="19">
         <v>1</v>
       </c>
-      <c r="B14" s="15">
+      <c r="B14" s="14">
         <v>50</v>
       </c>
       <c r="C14" s="3">
         <v>0</v>
       </c>
-      <c r="D14" s="15" t="s">
-        <v>63</v>
-      </c>
-      <c r="E14" s="3"/>
-      <c r="F14" s="3"/>
+      <c r="D14" s="14" t="s">
+        <v>60</v>
+      </c>
+      <c r="E14" s="29" t="s">
+        <v>60</v>
+      </c>
+      <c r="F14" s="3" t="s">
+        <v>61</v>
+      </c>
       <c r="G14" s="1"/>
       <c r="H14" s="1"/>
-      <c r="I14" s="19" t="s">
-        <v>35</v>
-      </c>
-      <c r="J14" s="19" t="s">
-        <v>36</v>
+      <c r="I14" s="18" t="s">
+        <v>32</v>
+      </c>
+      <c r="J14" s="18" t="s">
+        <v>33</v>
       </c>
       <c r="L14" s="1"/>
       <c r="M14" s="1"/>
       <c r="N14" s="1"/>
     </row>
     <row r="15" spans="1:14" x14ac:dyDescent="0.45">
-      <c r="A15" s="21">
+      <c r="A15" s="19">
         <v>2</v>
       </c>
-      <c r="B15" s="15">
+      <c r="B15" s="14">
         <v>150</v>
       </c>
       <c r="C15" s="3">
         <v>0</v>
       </c>
-      <c r="D15" s="15" t="s">
-        <v>63</v>
-      </c>
-      <c r="E15" s="3"/>
-      <c r="F15" s="3"/>
+      <c r="D15" s="14" t="s">
+        <v>60</v>
+      </c>
+      <c r="E15" s="29" t="s">
+        <v>60</v>
+      </c>
+      <c r="F15" s="3" t="s">
+        <v>61</v>
+      </c>
       <c r="G15" s="1"/>
       <c r="H15" s="1"/>
       <c r="I15" s="3" t="s">
@@ -1657,24 +1752,28 @@
       <c r="N15" s="1"/>
     </row>
     <row r="16" spans="1:14" x14ac:dyDescent="0.45">
-      <c r="A16" s="21">
+      <c r="A16" s="19">
         <v>3</v>
       </c>
-      <c r="B16" s="15">
+      <c r="B16" s="14">
         <v>300</v>
       </c>
       <c r="C16" s="3">
         <v>0</v>
       </c>
-      <c r="D16" s="15" t="s">
-        <v>63</v>
-      </c>
-      <c r="E16" s="3"/>
-      <c r="F16" s="3"/>
+      <c r="D16" s="14" t="s">
+        <v>60</v>
+      </c>
+      <c r="E16" s="29" t="s">
+        <v>60</v>
+      </c>
+      <c r="F16" s="3" t="s">
+        <v>61</v>
+      </c>
       <c r="G16" s="1"/>
       <c r="H16" s="1"/>
       <c r="I16" s="3" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="J16" s="3">
         <v>2</v>
@@ -1684,71 +1783,85 @@
       <c r="N16" s="1"/>
     </row>
     <row r="17" spans="1:11" x14ac:dyDescent="0.45">
-      <c r="A17" s="21">
+      <c r="A17" s="19">
         <v>4</v>
       </c>
-      <c r="B17" s="27">
+      <c r="B17" s="25">
         <v>-1</v>
       </c>
-      <c r="C17" s="22">
+      <c r="C17" s="20">
         <v>0</v>
       </c>
-      <c r="D17" s="15" t="s">
-        <v>63</v>
-      </c>
-      <c r="E17" s="3"/>
-      <c r="F17" s="3"/>
-      <c r="I17" s="26" t="s">
-        <v>63</v>
-      </c>
-      <c r="J17" s="23">
+      <c r="D17" s="14" t="s">
+        <v>60</v>
+      </c>
+      <c r="E17" s="29" t="s">
+        <v>60</v>
+      </c>
+      <c r="F17" s="3" t="s">
+        <v>61</v>
+      </c>
+      <c r="I17" s="24" t="s">
+        <v>60</v>
+      </c>
+      <c r="J17" s="21">
         <v>0</v>
       </c>
     </row>
     <row r="18" spans="1:11" x14ac:dyDescent="0.45">
-      <c r="A18" s="21">
+      <c r="A18" s="19">
         <v>5</v>
       </c>
-      <c r="B18" s="15">
+      <c r="B18" s="14">
         <v>60</v>
       </c>
-      <c r="C18" s="22">
+      <c r="C18" s="20">
         <v>1</v>
       </c>
-      <c r="D18" s="15">
+      <c r="D18" s="14">
         <f>60 * 1500</f>
         <v>90000</v>
       </c>
-      <c r="E18" s="3"/>
-      <c r="F18" s="3"/>
-      <c r="I18" s="19" t="s">
-        <v>40</v>
-      </c>
-      <c r="J18" s="19" t="s">
-        <v>44</v>
-      </c>
-      <c r="K18" s="19" t="s">
-        <v>45</v>
+      <c r="E18" s="29">
+        <f>60 * 1500</f>
+        <v>90000</v>
+      </c>
+      <c r="F18" s="3" t="s">
+        <v>61</v>
+      </c>
+      <c r="I18" s="18" t="s">
+        <v>37</v>
+      </c>
+      <c r="J18" s="18" t="s">
+        <v>41</v>
+      </c>
+      <c r="K18" s="18" t="s">
+        <v>42</v>
       </c>
     </row>
     <row r="19" spans="1:11" x14ac:dyDescent="0.45">
-      <c r="A19" s="21">
+      <c r="A19" s="19">
         <v>6</v>
       </c>
-      <c r="B19" s="15">
+      <c r="B19" s="14">
         <v>145</v>
       </c>
-      <c r="C19" s="22">
+      <c r="C19" s="20">
         <v>1</v>
       </c>
-      <c r="D19" s="15">
+      <c r="D19" s="14">
         <f xml:space="preserve"> 100 * 1500 + 45 * 2000</f>
         <v>240000</v>
       </c>
-      <c r="E19" s="3"/>
-      <c r="F19" s="3"/>
+      <c r="E19" s="29">
+        <f xml:space="preserve"> 100 * 1500 + 45 * 2000</f>
+        <v>240000</v>
+      </c>
+      <c r="F19" s="3" t="s">
+        <v>61</v>
+      </c>
       <c r="I19" s="3" t="s">
-        <v>41</v>
+        <v>38</v>
       </c>
       <c r="J19" s="3">
         <v>1500</v>
@@ -1758,23 +1871,28 @@
       </c>
     </row>
     <row r="20" spans="1:11" x14ac:dyDescent="0.45">
-      <c r="A20" s="28">
+      <c r="A20" s="26">
         <v>7</v>
       </c>
-      <c r="B20" s="15">
+      <c r="B20" s="14">
         <v>350</v>
       </c>
-      <c r="C20" s="22">
+      <c r="C20" s="20">
         <v>1</v>
       </c>
-      <c r="D20" s="15">
+      <c r="D20" s="14">
         <f xml:space="preserve"> 100 * 1500 + 100 * 2000 + 150 * 3000</f>
         <v>800000</v>
       </c>
-      <c r="E20" s="3"/>
-      <c r="F20" s="3"/>
+      <c r="E20" s="29">
+        <f xml:space="preserve"> 100 * 1500 + 100 * 2000 + 150 * 3000</f>
+        <v>800000</v>
+      </c>
+      <c r="F20" s="3" t="s">
+        <v>61</v>
+      </c>
       <c r="I20" s="3" t="s">
-        <v>42</v>
+        <v>39</v>
       </c>
       <c r="J20" s="3">
         <v>2000</v>
@@ -1784,22 +1902,26 @@
       </c>
     </row>
     <row r="21" spans="1:11" x14ac:dyDescent="0.45">
-      <c r="A21" s="28">
+      <c r="A21" s="26">
         <v>8</v>
       </c>
-      <c r="B21" s="27">
+      <c r="B21" s="25">
         <v>-2</v>
       </c>
-      <c r="C21" s="22">
+      <c r="C21" s="20">
         <v>1</v>
       </c>
-      <c r="D21" s="15" t="s">
-        <v>63</v>
-      </c>
-      <c r="E21" s="3"/>
-      <c r="F21" s="3"/>
+      <c r="D21" s="14" t="s">
+        <v>60</v>
+      </c>
+      <c r="E21" s="29" t="s">
+        <v>60</v>
+      </c>
+      <c r="F21" s="3" t="s">
+        <v>61</v>
+      </c>
       <c r="I21" s="3" t="s">
-        <v>43</v>
+        <v>40</v>
       </c>
       <c r="J21" s="3">
         <v>3000</v>
@@ -1809,71 +1931,90 @@
       </c>
     </row>
     <row r="22" spans="1:11" x14ac:dyDescent="0.45">
-      <c r="A22" s="28">
+      <c r="A22" s="26">
         <v>9</v>
       </c>
-      <c r="B22" s="15">
+      <c r="B22" s="14">
         <v>40</v>
       </c>
-      <c r="C22" s="22">
+      <c r="C22" s="20">
         <v>2</v>
       </c>
-      <c r="D22" s="15">
+      <c r="D22" s="14">
         <f xml:space="preserve"> 40 * 2000</f>
         <v>80000</v>
       </c>
-      <c r="E22" s="3"/>
-      <c r="F22" s="3"/>
+      <c r="E22" s="29">
+        <f xml:space="preserve"> 40 * 2000</f>
+        <v>80000</v>
+      </c>
+      <c r="F22" s="3" t="s">
+        <v>61</v>
+      </c>
     </row>
     <row r="23" spans="1:11" x14ac:dyDescent="0.45">
-      <c r="A23" s="28">
+      <c r="A23" s="26">
         <v>10</v>
       </c>
-      <c r="B23" s="15">
+      <c r="B23" s="14">
         <v>165</v>
       </c>
-      <c r="C23" s="22">
+      <c r="C23" s="20">
         <v>2</v>
       </c>
-      <c r="D23" s="15">
+      <c r="D23" s="14">
         <f xml:space="preserve"> 100 * 2000 + 65 * 2500</f>
         <v>362500</v>
       </c>
-      <c r="E23" s="3"/>
-      <c r="F23" s="3"/>
+      <c r="E23" s="29">
+        <f xml:space="preserve"> 100 * 2000 + 65 * 2500</f>
+        <v>362500</v>
+      </c>
+      <c r="F23" s="3" t="s">
+        <v>61</v>
+      </c>
     </row>
     <row r="24" spans="1:11" x14ac:dyDescent="0.45">
-      <c r="A24" s="28">
+      <c r="A24" s="26">
         <v>11</v>
       </c>
-      <c r="B24" s="15">
+      <c r="B24" s="14">
         <v>600</v>
       </c>
-      <c r="C24" s="22">
+      <c r="C24" s="20">
         <v>2</v>
       </c>
-      <c r="D24" s="15">
+      <c r="D24" s="14">
         <f xml:space="preserve"> 100 * 2000 + 100 * 2500 + 400 * 3500</f>
         <v>1850000</v>
       </c>
-      <c r="E24" s="3"/>
-      <c r="F24" s="3"/>
+      <c r="E24" s="29">
+        <f xml:space="preserve"> 100 * 2000 + 100 * 2500 + 400 * 3500</f>
+        <v>1850000</v>
+      </c>
+      <c r="F24" s="3" t="s">
+        <v>61</v>
+      </c>
     </row>
     <row r="25" spans="1:11" x14ac:dyDescent="0.45">
-      <c r="A25" s="28">
+      <c r="A25" s="26">
         <v>12</v>
       </c>
-      <c r="B25" s="27">
+      <c r="B25" s="25">
         <v>-3</v>
       </c>
-      <c r="C25" s="22">
+      <c r="C25" s="20">
         <v>2</v>
       </c>
-      <c r="D25" s="15" t="s">
-        <v>63</v>
-      </c>
-      <c r="E25" s="3"/>
-      <c r="F25" s="3"/>
+      <c r="D25" s="14" t="s">
+        <v>60</v>
+      </c>
+      <c r="E25" s="29" t="s">
+        <v>60</v>
+      </c>
+      <c r="F25" s="3" t="s">
+        <v>61</v>
+      </c>
     </row>
   </sheetData>
   <mergeCells count="2">
